--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H2">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N2">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q2">
-        <v>21.95472384996278</v>
+        <v>31.881821548605</v>
       </c>
       <c r="R2">
-        <v>21.95472384996278</v>
+        <v>286.936393937445</v>
       </c>
       <c r="S2">
-        <v>0.001145727117517594</v>
+        <v>0.001555785232613341</v>
       </c>
       <c r="T2">
-        <v>0.001145727117517594</v>
+        <v>0.001555785232613341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H3">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N3">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q3">
-        <v>108.7924831993</v>
+        <v>148.233352752735</v>
       </c>
       <c r="R3">
-        <v>108.7924831993</v>
+        <v>1334.100174774615</v>
       </c>
       <c r="S3">
-        <v>0.005677434115561723</v>
+        <v>0.007233566025764296</v>
       </c>
       <c r="T3">
-        <v>0.005677434115561723</v>
+        <v>0.007233566025764297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H4">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N4">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O4">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P4">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q4">
-        <v>223.2376882442028</v>
+        <v>317.3571270858899</v>
       </c>
       <c r="R4">
-        <v>223.2376882442028</v>
+        <v>2856.21414377301</v>
       </c>
       <c r="S4">
-        <v>0.01164986063232836</v>
+        <v>0.01548655339633273</v>
       </c>
       <c r="T4">
-        <v>0.01164986063232836</v>
+        <v>0.01548655339633274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H5">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N5">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q5">
-        <v>252.4603298302763</v>
+        <v>342.97769696313</v>
       </c>
       <c r="R5">
-        <v>252.4603298302763</v>
+        <v>3086.79927266817</v>
       </c>
       <c r="S5">
-        <v>0.01317487060920031</v>
+        <v>0.01673679890709754</v>
       </c>
       <c r="T5">
-        <v>0.01317487060920031</v>
+        <v>0.01673679890709755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H6">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N6">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q6">
-        <v>47.43098757994666</v>
+        <v>64.27688566089</v>
       </c>
       <c r="R6">
-        <v>47.43098757994666</v>
+        <v>578.49197094801</v>
       </c>
       <c r="S6">
-        <v>0.002475228978162585</v>
+        <v>0.003136615935106896</v>
       </c>
       <c r="T6">
-        <v>0.002475228978162585</v>
+        <v>0.003136615935106896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H7">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N7">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q7">
-        <v>34.09669957158648</v>
+        <v>47.956449204675</v>
       </c>
       <c r="R7">
-        <v>34.09669957158648</v>
+        <v>431.608042842075</v>
       </c>
       <c r="S7">
-        <v>0.001779367100401193</v>
+        <v>0.002340203032861833</v>
       </c>
       <c r="T7">
-        <v>0.001779367100401193</v>
+        <v>0.002340203032861833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H8">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N8">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q8">
-        <v>203.6360444968265</v>
+        <v>219.3411024205963</v>
       </c>
       <c r="R8">
-        <v>203.6360444968265</v>
+        <v>1974.069921785367</v>
       </c>
       <c r="S8">
-        <v>0.01062693112782783</v>
+        <v>0.01070351791320485</v>
       </c>
       <c r="T8">
-        <v>0.01062693112782783</v>
+        <v>0.01070351791320485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H9">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N9">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q9">
-        <v>1009.079918339782</v>
+        <v>1019.818361341674</v>
       </c>
       <c r="R9">
-        <v>1009.079918339782</v>
+        <v>9178.365252075067</v>
       </c>
       <c r="S9">
-        <v>0.05265974803806463</v>
+        <v>0.04976561154463695</v>
       </c>
       <c r="T9">
-        <v>0.05265974803806463</v>
+        <v>0.04976561154463697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H10">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N10">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O10">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P10">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q10">
-        <v>2070.590371681776</v>
+        <v>2183.359003184</v>
       </c>
       <c r="R10">
-        <v>2070.590371681776</v>
+        <v>19650.231028656</v>
       </c>
       <c r="S10">
-        <v>0.1080556309575566</v>
+        <v>0.106544655532572</v>
       </c>
       <c r="T10">
-        <v>0.1080556309575566</v>
+        <v>0.106544655532572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H11">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N11">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q11">
-        <v>2341.638333068298</v>
+        <v>2359.623839023144</v>
       </c>
       <c r="R11">
-        <v>2341.638333068298</v>
+        <v>21236.6145512083</v>
       </c>
       <c r="S11">
-        <v>0.1222005139281036</v>
+        <v>0.1151461160297234</v>
       </c>
       <c r="T11">
-        <v>0.1222005139281036</v>
+        <v>0.1151461160297234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H12">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N12">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q12">
-        <v>439.935330699904</v>
+        <v>442.2132198290006</v>
       </c>
       <c r="R12">
-        <v>439.935330699904</v>
+        <v>3979.918978461006</v>
       </c>
       <c r="S12">
-        <v>0.02295842306109467</v>
+        <v>0.02157934407943072</v>
       </c>
       <c r="T12">
-        <v>0.02295842306109467</v>
+        <v>0.02157934407943072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H13">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N13">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q13">
-        <v>316.2561769669575</v>
+        <v>329.931601326305</v>
       </c>
       <c r="R13">
-        <v>316.2561769669575</v>
+        <v>2969.384411936745</v>
       </c>
       <c r="S13">
-        <v>0.01650411458188761</v>
+        <v>0.01610016894214744</v>
       </c>
       <c r="T13">
-        <v>0.01650411458188761</v>
+        <v>0.01610016894214745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H14">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N14">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q14">
-        <v>132.472041488612</v>
+        <v>159.0497663234573</v>
       </c>
       <c r="R14">
-        <v>132.472041488612</v>
+        <v>1431.447896911116</v>
       </c>
       <c r="S14">
-        <v>0.00691317327804494</v>
+        <v>0.007761390838958031</v>
       </c>
       <c r="T14">
-        <v>0.00691317327804494</v>
+        <v>0.007761390838958031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H15">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N15">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q15">
-        <v>656.4401559553769</v>
+        <v>739.4960190942013</v>
       </c>
       <c r="R15">
-        <v>656.4401559553769</v>
+        <v>6655.464171847811</v>
       </c>
       <c r="S15">
-        <v>0.03425692314990467</v>
+        <v>0.03608630028648573</v>
       </c>
       <c r="T15">
-        <v>0.03425692314990467</v>
+        <v>0.03608630028648573</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H16">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N16">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O16">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P16">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q16">
-        <v>1346.988124332888</v>
+        <v>1583.208689225699</v>
       </c>
       <c r="R16">
-        <v>1346.988124332888</v>
+        <v>14248.87820303129</v>
       </c>
       <c r="S16">
-        <v>0.07029379333436557</v>
+        <v>0.0772582173539655</v>
       </c>
       <c r="T16">
-        <v>0.07029379333436557</v>
+        <v>0.07725821735396551</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H17">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N17">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q17">
-        <v>1523.313867031935</v>
+        <v>1711.022768036611</v>
       </c>
       <c r="R17">
-        <v>1523.313867031935</v>
+        <v>15399.20491232949</v>
       </c>
       <c r="S17">
-        <v>0.07949551166648072</v>
+        <v>0.08349535333538796</v>
       </c>
       <c r="T17">
-        <v>0.07949551166648072</v>
+        <v>0.08349535333538798</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H18">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N18">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q18">
-        <v>286.1926115525789</v>
+        <v>320.6599606856987</v>
       </c>
       <c r="R18">
-        <v>286.1926115525789</v>
+        <v>2885.939646171288</v>
       </c>
       <c r="S18">
-        <v>0.0149352202345977</v>
+        <v>0.01564772673871933</v>
       </c>
       <c r="T18">
-        <v>0.0149352202345977</v>
+        <v>0.01564772673871933</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H19">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N19">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O19">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P19">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q19">
-        <v>205.7351953565839</v>
+        <v>239.24172676514</v>
       </c>
       <c r="R19">
-        <v>205.7351953565839</v>
+        <v>2153.17554088626</v>
       </c>
       <c r="S19">
-        <v>0.01073647721368255</v>
+        <v>0.01167463863250959</v>
       </c>
       <c r="T19">
-        <v>0.01073647721368255</v>
+        <v>0.01167463863250959</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H20">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N20">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O20">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P20">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q20">
-        <v>134.9638720359264</v>
+        <v>144.8695685668156</v>
       </c>
       <c r="R20">
-        <v>134.9638720359264</v>
+        <v>1303.82611710134</v>
       </c>
       <c r="S20">
-        <v>0.007043211708490585</v>
+        <v>0.007069418385888284</v>
       </c>
       <c r="T20">
-        <v>0.007043211708490585</v>
+        <v>0.007069418385888285</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H21">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N21">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O21">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P21">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q21">
-        <v>668.7879511181321</v>
+        <v>673.5657129177088</v>
       </c>
       <c r="R21">
-        <v>668.7879511181321</v>
+        <v>6062.091416259379</v>
       </c>
       <c r="S21">
-        <v>0.0349013040064439</v>
+        <v>0.03286899990185474</v>
       </c>
       <c r="T21">
-        <v>0.0349013040064439</v>
+        <v>0.03286899990185475</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H22">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N22">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O22">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P22">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q22">
-        <v>1372.325290706752</v>
+        <v>1442.056565445791</v>
       </c>
       <c r="R22">
-        <v>1372.325290706752</v>
+        <v>12978.50908901212</v>
       </c>
       <c r="S22">
-        <v>0.07161603627369727</v>
+        <v>0.07037020471660728</v>
       </c>
       <c r="T22">
-        <v>0.07161603627369727</v>
+        <v>0.07037020471660729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H23">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N23">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O23">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P23">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q23">
-        <v>1551.967762483104</v>
+        <v>1558.475286970004</v>
       </c>
       <c r="R23">
-        <v>1551.967762483104</v>
+        <v>14026.27758273004</v>
       </c>
       <c r="S23">
-        <v>0.08099084111199203</v>
+        <v>0.07605126429693797</v>
       </c>
       <c r="T23">
-        <v>0.08099084111199203</v>
+        <v>0.07605126429693798</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H24">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N24">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O24">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P24">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q24">
-        <v>291.5759625137981</v>
+        <v>292.0712883457911</v>
       </c>
       <c r="R24">
-        <v>291.5759625137981</v>
+        <v>2628.64159511212</v>
       </c>
       <c r="S24">
-        <v>0.01521615527261202</v>
+        <v>0.01425264226468318</v>
       </c>
       <c r="T24">
-        <v>0.01521615527261202</v>
+        <v>0.01425264226468319</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H25">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N25">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O25">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P25">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q25">
-        <v>209.6051232197496</v>
+        <v>217.9119563694333</v>
       </c>
       <c r="R25">
-        <v>209.6051232197496</v>
+        <v>1961.2076073249</v>
       </c>
       <c r="S25">
-        <v>0.01093843289875363</v>
+        <v>0.01063377772228579</v>
       </c>
       <c r="T25">
-        <v>0.01093843289875363</v>
+        <v>0.01063377772228579</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H26">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N26">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O26">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P26">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q26">
-        <v>67.26107644352849</v>
+        <v>73.63959639943356</v>
       </c>
       <c r="R26">
-        <v>67.26107644352849</v>
+        <v>662.7563675949019</v>
       </c>
       <c r="S26">
-        <v>0.003510080097632615</v>
+        <v>0.003593502223177026</v>
       </c>
       <c r="T26">
-        <v>0.003510080097632615</v>
+        <v>0.003593502223177026</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H27">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N27">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O27">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P27">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q27">
-        <v>333.2995476944619</v>
+        <v>342.3845859310348</v>
       </c>
       <c r="R27">
-        <v>333.2995476944619</v>
+        <v>3081.461273379314</v>
       </c>
       <c r="S27">
-        <v>0.0173935382954289</v>
+        <v>0.0167078559753511</v>
       </c>
       <c r="T27">
-        <v>0.0173935382954289</v>
+        <v>0.0167078559753511</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H28">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N28">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O28">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P28">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q28">
-        <v>683.9169245162411</v>
+        <v>733.0211894405151</v>
       </c>
       <c r="R28">
-        <v>683.9169245162411</v>
+        <v>6597.190704964636</v>
       </c>
       <c r="S28">
-        <v>0.03569082316418293</v>
+        <v>0.03577033827836977</v>
       </c>
       <c r="T28">
-        <v>0.03569082316418293</v>
+        <v>0.03577033827836978</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H29">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N29">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O29">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P29">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q29">
-        <v>773.4441872153826</v>
+        <v>792.1987499951124</v>
       </c>
       <c r="R29">
-        <v>773.4441872153826</v>
+        <v>7129.788749956011</v>
       </c>
       <c r="S29">
-        <v>0.04036288432662391</v>
+        <v>0.03865811477108251</v>
       </c>
       <c r="T29">
-        <v>0.04036288432662391</v>
+        <v>0.03865811477108252</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H30">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N30">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O30">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P30">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q30">
-        <v>145.3108362104155</v>
+        <v>148.4646638105151</v>
       </c>
       <c r="R30">
-        <v>145.3108362104155</v>
+        <v>1336.181974294636</v>
       </c>
       <c r="S30">
-        <v>0.007583177390578422</v>
+        <v>0.007244853659605603</v>
       </c>
       <c r="T30">
-        <v>0.007583177390578422</v>
+        <v>0.007244853659605603</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H31">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N31">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O31">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P31">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q31">
-        <v>104.4595564958742</v>
+        <v>110.7682495116633</v>
       </c>
       <c r="R31">
-        <v>104.4595564958742</v>
+        <v>996.91424560497</v>
       </c>
       <c r="S31">
-        <v>0.00545131641732707</v>
+        <v>0.005405324992800361</v>
       </c>
       <c r="T31">
-        <v>0.00545131641732707</v>
+        <v>0.005405324992800361</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H32">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N32">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O32">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P32">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q32">
-        <v>51.22204879636179</v>
+        <v>57.00323810669134</v>
       </c>
       <c r="R32">
-        <v>51.22204879636179</v>
+        <v>513.029142960222</v>
       </c>
       <c r="S32">
-        <v>0.002673068935954785</v>
+        <v>0.00278167280756933</v>
       </c>
       <c r="T32">
-        <v>0.002673068935954785</v>
+        <v>0.00278167280756933</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H33">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N33">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O33">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P33">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q33">
-        <v>253.8211785852803</v>
+        <v>265.0344519818393</v>
       </c>
       <c r="R33">
-        <v>253.8211785852803</v>
+        <v>2385.310067836554</v>
       </c>
       <c r="S33">
-        <v>0.01324588773208026</v>
+        <v>0.01293328506649135</v>
       </c>
       <c r="T33">
-        <v>0.01324588773208026</v>
+        <v>0.01293328506649135</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H34">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N34">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O34">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P34">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q34">
-        <v>520.8305892880063</v>
+        <v>567.4200218627108</v>
       </c>
       <c r="R34">
-        <v>520.8305892880063</v>
+        <v>5106.780196764396</v>
       </c>
       <c r="S34">
-        <v>0.02718001528317785</v>
+        <v>0.02768924885164759</v>
       </c>
       <c r="T34">
-        <v>0.02718001528317785</v>
+        <v>0.02768924885164759</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H35">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N35">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O35">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P35">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q35">
-        <v>589.0092456678261</v>
+        <v>613.2284284782147</v>
       </c>
       <c r="R35">
-        <v>589.0092456678261</v>
+        <v>5519.055856303932</v>
       </c>
       <c r="S35">
-        <v>0.03073798011954293</v>
+        <v>0.02992463061718748</v>
       </c>
       <c r="T35">
-        <v>0.03073798011954293</v>
+        <v>0.02992463061718748</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H36">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N36">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O36">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P36">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q36">
-        <v>110.6601192929046</v>
+        <v>114.9241304327107</v>
       </c>
       <c r="R36">
-        <v>110.6601192929046</v>
+        <v>1034.317173894396</v>
       </c>
       <c r="S36">
-        <v>0.005774898393988574</v>
+        <v>0.005608125769274435</v>
       </c>
       <c r="T36">
-        <v>0.005774898393988574</v>
+        <v>0.005608125769274435</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H37">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N37">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O37">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P37">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q37">
-        <v>79.55020619645153</v>
+        <v>85.74393682613001</v>
       </c>
       <c r="R37">
-        <v>79.55020619645153</v>
+        <v>771.69543143517</v>
       </c>
       <c r="S37">
-        <v>0.004151399446709288</v>
+        <v>0.004184175941667962</v>
       </c>
       <c r="T37">
-        <v>0.004151399446709288</v>
+        <v>0.004184175941667963</v>
       </c>
     </row>
   </sheetData>
